--- a/高中签到表二中班.xlsx
+++ b/高中签到表二中班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>下午</t>
   </si>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>数学/英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄晓辉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,23 +243,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -552,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:H13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -569,34 +573,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -605,22 +609,22 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
@@ -629,294 +633,265 @@
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
+  <mergeCells count="79">
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
@@ -933,12 +908,59 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高中签到表二中班.xlsx
+++ b/高中签到表二中班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>下午</t>
   </si>
@@ -110,11 +110,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数学/英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄晓辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴江熬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王韫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +168,21 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,7 +251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -260,6 +279,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -556,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -627,293 +652,316 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="E20:F20"/>
+  <mergeCells count="87">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
@@ -924,6 +972,8 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:J2"/>
@@ -931,36 +981,45 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G20:H20"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高中签到表二中班.xlsx
+++ b/高中签到表二中班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>下午</t>
   </si>
@@ -119,6 +119,17 @@
   </si>
   <si>
     <t>王韫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/英语</t>
+  </si>
+  <si>
+    <t>数学/英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,29 +273,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -584,7 +595,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -598,34 +609,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -634,360 +645,355 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I9:J9"/>
@@ -1004,22 +1010,67 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高中签到表二中班.xlsx
+++ b/高中签到表二中班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>下午</t>
   </si>
@@ -42,6 +42,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>数学/英语</t>
+  </si>
+  <si>
+    <t>数学/英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>王鑫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,14 +133,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>卢静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向殿朋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>数学/英语</t>
-  </si>
-  <si>
-    <t>数学/英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -253,6 +273,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -262,7 +295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,8 +309,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,17 +327,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -592,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -609,34 +651,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -645,355 +687,460 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
+      <c r="A4" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="B22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
+  <mergeCells count="99">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I9:J9"/>
@@ -1010,67 +1157,22 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高中签到表二中班.xlsx
+++ b/高中签到表二中班.xlsx
@@ -295,7 +295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,6 +309,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,22 +333,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,7 +634,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -651,34 +648,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -687,326 +684,326 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
@@ -1015,101 +1012,112 @@
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
@@ -1126,53 +1134,42 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高中签到表二中班.xlsx
+++ b/高中签到表二中班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>下午</t>
   </si>
@@ -150,6 +150,14 @@
   </si>
   <si>
     <t>数学/英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冉湖川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,26 +323,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -631,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C24" sqref="C24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -648,34 +656,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -684,22 +692,22 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
@@ -708,14 +716,14 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
@@ -724,14 +732,14 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
@@ -740,14 +748,14 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
@@ -756,14 +764,14 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
@@ -772,14 +780,14 @@
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
@@ -788,14 +796,14 @@
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
@@ -804,14 +812,14 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
@@ -820,14 +828,14 @@
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
@@ -836,14 +844,14 @@
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
@@ -852,30 +860,30 @@
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
@@ -884,14 +892,14 @@
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
@@ -900,14 +908,14 @@
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
@@ -916,14 +924,14 @@
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
@@ -932,14 +940,14 @@
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
@@ -948,14 +956,14 @@
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
@@ -964,14 +972,14 @@
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
@@ -980,14 +988,14 @@
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
@@ -996,14 +1004,14 @@
       <c r="B22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
@@ -1012,14 +1020,14 @@
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
@@ -1028,14 +1036,14 @@
       <c r="B24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
@@ -1044,14 +1052,14 @@
       <c r="B25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
@@ -1060,17 +1068,120 @@
       <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
+  <mergeCells count="103">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
@@ -1087,89 +1198,6 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高中签到表二中班.xlsx
+++ b/高中签到表二中班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>下午</t>
   </si>
@@ -158,6 +158,10 @@
   </si>
   <si>
     <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,6 +330,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -337,12 +347,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -639,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:D24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -656,34 +660,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -692,22 +696,22 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
@@ -716,14 +720,14 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
@@ -732,14 +736,14 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
@@ -748,14 +752,14 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
@@ -764,14 +768,14 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
@@ -780,14 +784,14 @@
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
@@ -796,14 +800,14 @@
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
@@ -812,14 +816,14 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
@@ -828,14 +832,14 @@
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
@@ -844,14 +848,14 @@
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
@@ -860,14 +864,14 @@
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
@@ -876,14 +880,14 @@
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
@@ -892,14 +896,14 @@
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
@@ -908,14 +912,14 @@
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
@@ -924,14 +928,14 @@
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
@@ -940,14 +944,14 @@
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
@@ -956,14 +960,14 @@
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
@@ -972,14 +976,14 @@
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
@@ -988,14 +992,14 @@
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
@@ -1004,14 +1008,14 @@
       <c r="B22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
@@ -1020,14 +1024,14 @@
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
@@ -1036,14 +1040,14 @@
       <c r="B24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
@@ -1052,14 +1056,14 @@
       <c r="B25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
@@ -1068,14 +1072,14 @@
       <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
@@ -1084,88 +1088,41 @@
       <c r="B27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
+  <mergeCells count="107">
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I9:J9"/>
@@ -1186,18 +1143,85 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高中签到表二中班.xlsx
+++ b/高中签到表二中班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>下午</t>
   </si>
@@ -125,43 +125,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>王韫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向殿朋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冉湖川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江美君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>吴江熬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王韫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卢静</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向殿朋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学/英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冉湖川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐晓</t>
+    <t>英语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,15 +338,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,6 +355,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -643,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -676,18 +687,18 @@
     <row r="2" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -704,14 +715,14 @@
         <v>3</v>
       </c>
       <c r="F3" s="12"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
@@ -720,14 +731,14 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
@@ -736,14 +747,14 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
@@ -752,14 +763,14 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
@@ -768,14 +779,14 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
@@ -784,14 +795,14 @@
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
@@ -800,14 +811,14 @@
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
@@ -816,14 +827,14 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
@@ -832,14 +843,14 @@
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
@@ -848,14 +859,14 @@
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
@@ -864,14 +875,14 @@
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
@@ -880,14 +891,14 @@
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
@@ -896,14 +907,14 @@
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
@@ -912,14 +923,14 @@
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
@@ -928,14 +939,14 @@
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
@@ -944,14 +955,14 @@
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
@@ -960,14 +971,14 @@
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
@@ -976,14 +987,14 @@
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
@@ -992,129 +1003,232 @@
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="111">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
@@ -1139,89 +1253,6 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高中签到表二中班.xlsx
+++ b/高中签到表二中班.xlsx
@@ -315,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,15 +338,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,9 +355,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -657,7 +654,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E29" sqref="E29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -687,18 +684,18 @@
     <row r="2" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -715,14 +712,14 @@
         <v>3</v>
       </c>
       <c r="F3" s="12"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
@@ -731,14 +728,14 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
@@ -747,14 +744,14 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
@@ -763,14 +760,14 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
@@ -779,14 +776,14 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
@@ -795,14 +792,14 @@
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
@@ -811,14 +808,14 @@
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
@@ -827,14 +824,14 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
@@ -843,14 +840,14 @@
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
@@ -859,14 +856,14 @@
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
@@ -875,14 +872,14 @@
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
@@ -891,14 +888,14 @@
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
@@ -907,14 +904,14 @@
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
@@ -923,14 +920,14 @@
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
@@ -939,14 +936,14 @@
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
@@ -955,14 +952,14 @@
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
@@ -971,14 +968,14 @@
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
@@ -987,14 +984,14 @@
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
@@ -1003,14 +1000,14 @@
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
@@ -1019,14 +1016,14 @@
       <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
@@ -1035,14 +1032,14 @@
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
@@ -1051,14 +1048,14 @@
       <c r="B24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
@@ -1067,14 +1064,14 @@
       <c r="B25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
@@ -1083,14 +1080,14 @@
       <c r="B26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
@@ -1099,14 +1096,14 @@
       <c r="B27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
@@ -1115,96 +1112,57 @@
       <c r="B28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
@@ -1229,30 +1187,69 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
